--- a/_data/BTCUSDT_1h.xlsx
+++ b/_data/BTCUSDT_1h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1335"/>
+  <dimension ref="A1:F1507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27101,6 +27101,3446 @@
         <v>47.89626</v>
       </c>
     </row>
+    <row r="1336" spans="1:6">
+      <c r="A1336" s="2">
+        <v>45534.45833333334</v>
+      </c>
+      <c r="B1336">
+        <v>59581.13</v>
+      </c>
+      <c r="C1336">
+        <v>59650</v>
+      </c>
+      <c r="D1336">
+        <v>59318</v>
+      </c>
+      <c r="E1336">
+        <v>59396</v>
+      </c>
+      <c r="F1336">
+        <v>942.6504</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6">
+      <c r="A1337" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1337">
+        <v>59396</v>
+      </c>
+      <c r="C1337">
+        <v>59944.07</v>
+      </c>
+      <c r="D1337">
+        <v>59375</v>
+      </c>
+      <c r="E1337">
+        <v>59539</v>
+      </c>
+      <c r="F1337">
+        <v>1560.98266</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6">
+      <c r="A1338" s="2">
+        <v>45534.54166666666</v>
+      </c>
+      <c r="B1338">
+        <v>59538.99</v>
+      </c>
+      <c r="C1338">
+        <v>59668</v>
+      </c>
+      <c r="D1338">
+        <v>58901</v>
+      </c>
+      <c r="E1338">
+        <v>59653</v>
+      </c>
+      <c r="F1338">
+        <v>1636.19787</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6">
+      <c r="A1339" s="2">
+        <v>45534.58333333334</v>
+      </c>
+      <c r="B1339">
+        <v>59653</v>
+      </c>
+      <c r="C1339">
+        <v>59830</v>
+      </c>
+      <c r="D1339">
+        <v>58441.31</v>
+      </c>
+      <c r="E1339">
+        <v>58462.89</v>
+      </c>
+      <c r="F1339">
+        <v>3132.8117</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6">
+      <c r="A1340" s="2">
+        <v>45534.625</v>
+      </c>
+      <c r="B1340">
+        <v>58462.89</v>
+      </c>
+      <c r="C1340">
+        <v>58675.01</v>
+      </c>
+      <c r="D1340">
+        <v>57946.01</v>
+      </c>
+      <c r="E1340">
+        <v>58094.99</v>
+      </c>
+      <c r="F1340">
+        <v>4035.99461</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6">
+      <c r="A1341" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1341">
+        <v>58095</v>
+      </c>
+      <c r="C1341">
+        <v>58600</v>
+      </c>
+      <c r="D1341">
+        <v>57701.1</v>
+      </c>
+      <c r="E1341">
+        <v>58551.11</v>
+      </c>
+      <c r="F1341">
+        <v>2484.7707</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6">
+      <c r="A1342" s="2">
+        <v>45534.70833333334</v>
+      </c>
+      <c r="B1342">
+        <v>58551.1</v>
+      </c>
+      <c r="C1342">
+        <v>58811.04</v>
+      </c>
+      <c r="D1342">
+        <v>58406</v>
+      </c>
+      <c r="E1342">
+        <v>58630.91</v>
+      </c>
+      <c r="F1342">
+        <v>1172.01387</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6">
+      <c r="A1343" s="2">
+        <v>45534.75</v>
+      </c>
+      <c r="B1343">
+        <v>58630.91</v>
+      </c>
+      <c r="C1343">
+        <v>59371</v>
+      </c>
+      <c r="D1343">
+        <v>58625</v>
+      </c>
+      <c r="E1343">
+        <v>59370.99</v>
+      </c>
+      <c r="F1343">
+        <v>1799.51718</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6">
+      <c r="A1344" s="2">
+        <v>45534.79166666666</v>
+      </c>
+      <c r="B1344">
+        <v>59371</v>
+      </c>
+      <c r="C1344">
+        <v>59371</v>
+      </c>
+      <c r="D1344">
+        <v>58700.01</v>
+      </c>
+      <c r="E1344">
+        <v>58700.02</v>
+      </c>
+      <c r="F1344">
+        <v>961.28426</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6">
+      <c r="A1345" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1345">
+        <v>58700.02</v>
+      </c>
+      <c r="C1345">
+        <v>59048</v>
+      </c>
+      <c r="D1345">
+        <v>58700</v>
+      </c>
+      <c r="E1345">
+        <v>59048</v>
+      </c>
+      <c r="F1345">
+        <v>529.06241</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6">
+      <c r="A1346" s="2">
+        <v>45534.875</v>
+      </c>
+      <c r="B1346">
+        <v>59048</v>
+      </c>
+      <c r="C1346">
+        <v>59155</v>
+      </c>
+      <c r="D1346">
+        <v>58975.4</v>
+      </c>
+      <c r="E1346">
+        <v>59055.99</v>
+      </c>
+      <c r="F1346">
+        <v>402.27734</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6">
+      <c r="A1347" s="2">
+        <v>45534.91666666666</v>
+      </c>
+      <c r="B1347">
+        <v>59056</v>
+      </c>
+      <c r="C1347">
+        <v>59298.89</v>
+      </c>
+      <c r="D1347">
+        <v>59051.1</v>
+      </c>
+      <c r="E1347">
+        <v>59237.5</v>
+      </c>
+      <c r="F1347">
+        <v>458.92411</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6">
+      <c r="A1348" s="2">
+        <v>45534.95833333334</v>
+      </c>
+      <c r="B1348">
+        <v>59237.5</v>
+      </c>
+      <c r="C1348">
+        <v>59263</v>
+      </c>
+      <c r="D1348">
+        <v>59237.5</v>
+      </c>
+      <c r="E1348">
+        <v>59262.99</v>
+      </c>
+      <c r="F1348">
+        <v>7.48658</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6">
+      <c r="A1349" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1349">
+        <v>59123.99</v>
+      </c>
+      <c r="C1349">
+        <v>59462.38</v>
+      </c>
+      <c r="D1349">
+        <v>59070.4</v>
+      </c>
+      <c r="E1349">
+        <v>59246.01</v>
+      </c>
+      <c r="F1349">
+        <v>963.7521400000001</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6">
+      <c r="A1350" s="2">
+        <v>45535.04166666666</v>
+      </c>
+      <c r="B1350">
+        <v>59246</v>
+      </c>
+      <c r="C1350">
+        <v>59335</v>
+      </c>
+      <c r="D1350">
+        <v>59180.94</v>
+      </c>
+      <c r="E1350">
+        <v>59285</v>
+      </c>
+      <c r="F1350">
+        <v>240.32843</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6">
+      <c r="A1351" s="2">
+        <v>45535.08333333334</v>
+      </c>
+      <c r="B1351">
+        <v>59285</v>
+      </c>
+      <c r="C1351">
+        <v>59293</v>
+      </c>
+      <c r="D1351">
+        <v>59119.01</v>
+      </c>
+      <c r="E1351">
+        <v>59196.5</v>
+      </c>
+      <c r="F1351">
+        <v>240.22348</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6">
+      <c r="A1352" s="2">
+        <v>45535.125</v>
+      </c>
+      <c r="B1352">
+        <v>59196.5</v>
+      </c>
+      <c r="C1352">
+        <v>59254</v>
+      </c>
+      <c r="D1352">
+        <v>59129.33</v>
+      </c>
+      <c r="E1352">
+        <v>59232.01</v>
+      </c>
+      <c r="F1352">
+        <v>203.50087</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6">
+      <c r="A1353" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1353">
+        <v>59232.01</v>
+      </c>
+      <c r="C1353">
+        <v>59350</v>
+      </c>
+      <c r="D1353">
+        <v>59215</v>
+      </c>
+      <c r="E1353">
+        <v>59350</v>
+      </c>
+      <c r="F1353">
+        <v>242.60313</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6">
+      <c r="A1354" s="2">
+        <v>45535.20833333334</v>
+      </c>
+      <c r="B1354">
+        <v>59350</v>
+      </c>
+      <c r="C1354">
+        <v>59350</v>
+      </c>
+      <c r="D1354">
+        <v>59211.88</v>
+      </c>
+      <c r="E1354">
+        <v>59212</v>
+      </c>
+      <c r="F1354">
+        <v>326.53818</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6">
+      <c r="A1355" s="2">
+        <v>45535.25</v>
+      </c>
+      <c r="B1355">
+        <v>59212.01</v>
+      </c>
+      <c r="C1355">
+        <v>59264.95</v>
+      </c>
+      <c r="D1355">
+        <v>59151.8</v>
+      </c>
+      <c r="E1355">
+        <v>59154.01</v>
+      </c>
+      <c r="F1355">
+        <v>282.17292</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6">
+      <c r="A1356" s="2">
+        <v>45535.29166666666</v>
+      </c>
+      <c r="B1356">
+        <v>59154.02</v>
+      </c>
+      <c r="C1356">
+        <v>59188.99</v>
+      </c>
+      <c r="D1356">
+        <v>59043.12</v>
+      </c>
+      <c r="E1356">
+        <v>59095</v>
+      </c>
+      <c r="F1356">
+        <v>379.35638</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:6">
+      <c r="A1357" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1357">
+        <v>59095.01</v>
+      </c>
+      <c r="C1357">
+        <v>59130</v>
+      </c>
+      <c r="D1357">
+        <v>58981.1</v>
+      </c>
+      <c r="E1357">
+        <v>58985.01</v>
+      </c>
+      <c r="F1357">
+        <v>314.66099</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6">
+      <c r="A1358" s="2">
+        <v>45535.375</v>
+      </c>
+      <c r="B1358">
+        <v>58985.01</v>
+      </c>
+      <c r="C1358">
+        <v>59023</v>
+      </c>
+      <c r="D1358">
+        <v>58831.88</v>
+      </c>
+      <c r="E1358">
+        <v>58905.01</v>
+      </c>
+      <c r="F1358">
+        <v>523.53629</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6">
+      <c r="A1359" s="2">
+        <v>45535.41666666666</v>
+      </c>
+      <c r="B1359">
+        <v>58905.01</v>
+      </c>
+      <c r="C1359">
+        <v>59170.4</v>
+      </c>
+      <c r="D1359">
+        <v>58872</v>
+      </c>
+      <c r="E1359">
+        <v>59136.99</v>
+      </c>
+      <c r="F1359">
+        <v>384.10867</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6">
+      <c r="A1360" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="B1360">
+        <v>59136.99</v>
+      </c>
+      <c r="C1360">
+        <v>59188.9</v>
+      </c>
+      <c r="D1360">
+        <v>59103.54</v>
+      </c>
+      <c r="E1360">
+        <v>59120.99</v>
+      </c>
+      <c r="F1360">
+        <v>181.78193</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6">
+      <c r="A1361" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1361">
+        <v>59120.99</v>
+      </c>
+      <c r="C1361">
+        <v>59244.04</v>
+      </c>
+      <c r="D1361">
+        <v>59071.1</v>
+      </c>
+      <c r="E1361">
+        <v>59192.26</v>
+      </c>
+      <c r="F1361">
+        <v>383.94179</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6">
+      <c r="A1362" s="2">
+        <v>45535.54166666666</v>
+      </c>
+      <c r="B1362">
+        <v>59192.26</v>
+      </c>
+      <c r="C1362">
+        <v>59244.04</v>
+      </c>
+      <c r="D1362">
+        <v>58929.96</v>
+      </c>
+      <c r="E1362">
+        <v>58954.99</v>
+      </c>
+      <c r="F1362">
+        <v>375.75966</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:6">
+      <c r="A1363" s="2">
+        <v>45535.58333333334</v>
+      </c>
+      <c r="B1363">
+        <v>58955</v>
+      </c>
+      <c r="C1363">
+        <v>59170.11</v>
+      </c>
+      <c r="D1363">
+        <v>58892.15</v>
+      </c>
+      <c r="E1363">
+        <v>59126</v>
+      </c>
+      <c r="F1363">
+        <v>491.93631</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6">
+      <c r="A1364" s="2">
+        <v>45535.625</v>
+      </c>
+      <c r="B1364">
+        <v>59126.01</v>
+      </c>
+      <c r="C1364">
+        <v>59155</v>
+      </c>
+      <c r="D1364">
+        <v>58954.81</v>
+      </c>
+      <c r="E1364">
+        <v>59006.54</v>
+      </c>
+      <c r="F1364">
+        <v>523.34825</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6">
+      <c r="A1365" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1365">
+        <v>59006.54</v>
+      </c>
+      <c r="C1365">
+        <v>59032.12</v>
+      </c>
+      <c r="D1365">
+        <v>58854</v>
+      </c>
+      <c r="E1365">
+        <v>58971.55</v>
+      </c>
+      <c r="F1365">
+        <v>341.62388</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6">
+      <c r="A1366" s="2">
+        <v>45535.70833333334</v>
+      </c>
+      <c r="B1366">
+        <v>58971.55</v>
+      </c>
+      <c r="C1366">
+        <v>59034.84</v>
+      </c>
+      <c r="D1366">
+        <v>58744</v>
+      </c>
+      <c r="E1366">
+        <v>59013.16</v>
+      </c>
+      <c r="F1366">
+        <v>481.82306</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6">
+      <c r="A1367" s="2">
+        <v>45535.75</v>
+      </c>
+      <c r="B1367">
+        <v>59013.17</v>
+      </c>
+      <c r="C1367">
+        <v>59140.01</v>
+      </c>
+      <c r="D1367">
+        <v>58868.22</v>
+      </c>
+      <c r="E1367">
+        <v>58920.52</v>
+      </c>
+      <c r="F1367">
+        <v>536.82943</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6">
+      <c r="A1368" s="2">
+        <v>45535.79166666666</v>
+      </c>
+      <c r="B1368">
+        <v>58920.53</v>
+      </c>
+      <c r="C1368">
+        <v>58941.29</v>
+      </c>
+      <c r="D1368">
+        <v>58823.73</v>
+      </c>
+      <c r="E1368">
+        <v>58856</v>
+      </c>
+      <c r="F1368">
+        <v>276.99153</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6">
+      <c r="A1369" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1369">
+        <v>58856</v>
+      </c>
+      <c r="C1369">
+        <v>58971.56</v>
+      </c>
+      <c r="D1369">
+        <v>58763.29</v>
+      </c>
+      <c r="E1369">
+        <v>58951.08</v>
+      </c>
+      <c r="F1369">
+        <v>262.63261</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6">
+      <c r="A1370" s="2">
+        <v>45535.875</v>
+      </c>
+      <c r="B1370">
+        <v>58951.09</v>
+      </c>
+      <c r="C1370">
+        <v>58978</v>
+      </c>
+      <c r="D1370">
+        <v>58900</v>
+      </c>
+      <c r="E1370">
+        <v>58977.24</v>
+      </c>
+      <c r="F1370">
+        <v>227.06551</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6">
+      <c r="A1371" s="2">
+        <v>45535.91666666666</v>
+      </c>
+      <c r="B1371">
+        <v>59061</v>
+      </c>
+      <c r="C1371">
+        <v>59141.72</v>
+      </c>
+      <c r="D1371">
+        <v>59006</v>
+      </c>
+      <c r="E1371">
+        <v>59024</v>
+      </c>
+      <c r="F1371">
+        <v>203.35984</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6">
+      <c r="A1372" s="2">
+        <v>45535.95833333334</v>
+      </c>
+      <c r="B1372">
+        <v>59023.99</v>
+      </c>
+      <c r="C1372">
+        <v>59056</v>
+      </c>
+      <c r="D1372">
+        <v>58934</v>
+      </c>
+      <c r="E1372">
+        <v>58954.98</v>
+      </c>
+      <c r="F1372">
+        <v>78.82389999999999</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6">
+      <c r="A1373" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1373">
+        <v>58974</v>
+      </c>
+      <c r="C1373">
+        <v>59076.59</v>
+      </c>
+      <c r="D1373">
+        <v>58900</v>
+      </c>
+      <c r="E1373">
+        <v>58930</v>
+      </c>
+      <c r="F1373">
+        <v>289.12701</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6">
+      <c r="A1374" s="2">
+        <v>45536.04166666666</v>
+      </c>
+      <c r="B1374">
+        <v>58929.99</v>
+      </c>
+      <c r="C1374">
+        <v>58957</v>
+      </c>
+      <c r="D1374">
+        <v>58819.78</v>
+      </c>
+      <c r="E1374">
+        <v>58828.01</v>
+      </c>
+      <c r="F1374">
+        <v>330.21542</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6">
+      <c r="A1375" s="2">
+        <v>45536.08333333334</v>
+      </c>
+      <c r="B1375">
+        <v>58828</v>
+      </c>
+      <c r="C1375">
+        <v>58851.65</v>
+      </c>
+      <c r="D1375">
+        <v>58276.01</v>
+      </c>
+      <c r="E1375">
+        <v>58540.25</v>
+      </c>
+      <c r="F1375">
+        <v>1256.77642</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6">
+      <c r="A1376" s="2">
+        <v>45536.125</v>
+      </c>
+      <c r="B1376">
+        <v>58540.25</v>
+      </c>
+      <c r="C1376">
+        <v>58672.01</v>
+      </c>
+      <c r="D1376">
+        <v>58399.01</v>
+      </c>
+      <c r="E1376">
+        <v>58524.21</v>
+      </c>
+      <c r="F1376">
+        <v>437.88318</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6">
+      <c r="A1377" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1377">
+        <v>58524.21</v>
+      </c>
+      <c r="C1377">
+        <v>58599.98</v>
+      </c>
+      <c r="D1377">
+        <v>58355</v>
+      </c>
+      <c r="E1377">
+        <v>58442</v>
+      </c>
+      <c r="F1377">
+        <v>359.59086</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6">
+      <c r="A1378" s="2">
+        <v>45536.20833333334</v>
+      </c>
+      <c r="B1378">
+        <v>58442.01</v>
+      </c>
+      <c r="C1378">
+        <v>58468</v>
+      </c>
+      <c r="D1378">
+        <v>57777</v>
+      </c>
+      <c r="E1378">
+        <v>57986</v>
+      </c>
+      <c r="F1378">
+        <v>2028.37</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6">
+      <c r="A1379" s="2">
+        <v>45536.25</v>
+      </c>
+      <c r="B1379">
+        <v>57986</v>
+      </c>
+      <c r="C1379">
+        <v>58298</v>
+      </c>
+      <c r="D1379">
+        <v>57952</v>
+      </c>
+      <c r="E1379">
+        <v>58201.1</v>
+      </c>
+      <c r="F1379">
+        <v>470.79448</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6">
+      <c r="A1380" s="2">
+        <v>45536.29166666666</v>
+      </c>
+      <c r="B1380">
+        <v>58201.11</v>
+      </c>
+      <c r="C1380">
+        <v>58500</v>
+      </c>
+      <c r="D1380">
+        <v>58131.12</v>
+      </c>
+      <c r="E1380">
+        <v>58478.64</v>
+      </c>
+      <c r="F1380">
+        <v>507.40659</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6">
+      <c r="A1381" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1381">
+        <v>58478.64</v>
+      </c>
+      <c r="C1381">
+        <v>58504.81</v>
+      </c>
+      <c r="D1381">
+        <v>58200.51</v>
+      </c>
+      <c r="E1381">
+        <v>58233.99</v>
+      </c>
+      <c r="F1381">
+        <v>388.37704</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6">
+      <c r="A1382" s="2">
+        <v>45536.375</v>
+      </c>
+      <c r="B1382">
+        <v>58234</v>
+      </c>
+      <c r="C1382">
+        <v>58400</v>
+      </c>
+      <c r="D1382">
+        <v>58126.98</v>
+      </c>
+      <c r="E1382">
+        <v>58216</v>
+      </c>
+      <c r="F1382">
+        <v>442.19041</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6">
+      <c r="A1383" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B1383">
+        <v>58205</v>
+      </c>
+      <c r="C1383">
+        <v>58222</v>
+      </c>
+      <c r="D1383">
+        <v>57896.01</v>
+      </c>
+      <c r="E1383">
+        <v>57931</v>
+      </c>
+      <c r="F1383">
+        <v>715.76724</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6">
+      <c r="A1384" s="2">
+        <v>45536.45833333334</v>
+      </c>
+      <c r="B1384">
+        <v>57931</v>
+      </c>
+      <c r="C1384">
+        <v>58250.21</v>
+      </c>
+      <c r="D1384">
+        <v>57840</v>
+      </c>
+      <c r="E1384">
+        <v>58240.52</v>
+      </c>
+      <c r="F1384">
+        <v>937.3177899999999</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6">
+      <c r="A1385" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1385">
+        <v>58240.51</v>
+      </c>
+      <c r="C1385">
+        <v>58320.15</v>
+      </c>
+      <c r="D1385">
+        <v>57912.3</v>
+      </c>
+      <c r="E1385">
+        <v>58020</v>
+      </c>
+      <c r="F1385">
+        <v>632.17288</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6">
+      <c r="A1386" s="2">
+        <v>45536.54166666666</v>
+      </c>
+      <c r="B1386">
+        <v>58020.01</v>
+      </c>
+      <c r="C1386">
+        <v>58215</v>
+      </c>
+      <c r="D1386">
+        <v>57710</v>
+      </c>
+      <c r="E1386">
+        <v>58175.01</v>
+      </c>
+      <c r="F1386">
+        <v>1244.45581</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6">
+      <c r="A1387" s="2">
+        <v>45536.58333333334</v>
+      </c>
+      <c r="B1387">
+        <v>58175</v>
+      </c>
+      <c r="C1387">
+        <v>58179</v>
+      </c>
+      <c r="D1387">
+        <v>57201</v>
+      </c>
+      <c r="E1387">
+        <v>57879.99</v>
+      </c>
+      <c r="F1387">
+        <v>2863.1599</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6">
+      <c r="A1388" s="2">
+        <v>45536.625</v>
+      </c>
+      <c r="B1388">
+        <v>57879.99</v>
+      </c>
+      <c r="C1388">
+        <v>58360.38</v>
+      </c>
+      <c r="D1388">
+        <v>57714.35</v>
+      </c>
+      <c r="E1388">
+        <v>58217</v>
+      </c>
+      <c r="F1388">
+        <v>1171.60774</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6">
+      <c r="A1389" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1389">
+        <v>58217</v>
+      </c>
+      <c r="C1389">
+        <v>58350</v>
+      </c>
+      <c r="D1389">
+        <v>58090.01</v>
+      </c>
+      <c r="E1389">
+        <v>58132.06</v>
+      </c>
+      <c r="F1389">
+        <v>522.6256100000001</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6">
+      <c r="A1390" s="2">
+        <v>45536.70833333334</v>
+      </c>
+      <c r="B1390">
+        <v>58132.07</v>
+      </c>
+      <c r="C1390">
+        <v>58201</v>
+      </c>
+      <c r="D1390">
+        <v>57864.3</v>
+      </c>
+      <c r="E1390">
+        <v>58127.98</v>
+      </c>
+      <c r="F1390">
+        <v>571.34425</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6">
+      <c r="A1391" s="2">
+        <v>45536.75</v>
+      </c>
+      <c r="B1391">
+        <v>58127.98</v>
+      </c>
+      <c r="C1391">
+        <v>58788.93</v>
+      </c>
+      <c r="D1391">
+        <v>58122</v>
+      </c>
+      <c r="E1391">
+        <v>58541.1</v>
+      </c>
+      <c r="F1391">
+        <v>942.52521</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6">
+      <c r="A1392" s="2">
+        <v>45536.79166666666</v>
+      </c>
+      <c r="B1392">
+        <v>58541.11</v>
+      </c>
+      <c r="C1392">
+        <v>58775</v>
+      </c>
+      <c r="D1392">
+        <v>58292</v>
+      </c>
+      <c r="E1392">
+        <v>58514</v>
+      </c>
+      <c r="F1392">
+        <v>632.24922</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6">
+      <c r="A1393" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1393">
+        <v>58514.01</v>
+      </c>
+      <c r="C1393">
+        <v>58656.77</v>
+      </c>
+      <c r="D1393">
+        <v>58381.1</v>
+      </c>
+      <c r="E1393">
+        <v>58431.1</v>
+      </c>
+      <c r="F1393">
+        <v>334.87245</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6">
+      <c r="A1394" s="2">
+        <v>45536.875</v>
+      </c>
+      <c r="B1394">
+        <v>58431.1</v>
+      </c>
+      <c r="C1394">
+        <v>58431.1</v>
+      </c>
+      <c r="D1394">
+        <v>58093.57</v>
+      </c>
+      <c r="E1394">
+        <v>58351.11</v>
+      </c>
+      <c r="F1394">
+        <v>337.4805</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6">
+      <c r="A1395" s="2">
+        <v>45536.91666666666</v>
+      </c>
+      <c r="B1395">
+        <v>58351.11</v>
+      </c>
+      <c r="C1395">
+        <v>58414</v>
+      </c>
+      <c r="D1395">
+        <v>57232</v>
+      </c>
+      <c r="E1395">
+        <v>57309.01</v>
+      </c>
+      <c r="F1395">
+        <v>1949.02986</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6">
+      <c r="A1396" s="2">
+        <v>45536.95833333334</v>
+      </c>
+      <c r="B1396">
+        <v>57309</v>
+      </c>
+      <c r="C1396">
+        <v>57598</v>
+      </c>
+      <c r="D1396">
+        <v>57205</v>
+      </c>
+      <c r="E1396">
+        <v>57301.86</v>
+      </c>
+      <c r="F1396">
+        <v>1302.87269</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6">
+      <c r="A1397" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1397">
+        <v>57301.77</v>
+      </c>
+      <c r="C1397">
+        <v>57650</v>
+      </c>
+      <c r="D1397">
+        <v>57128</v>
+      </c>
+      <c r="E1397">
+        <v>57467.24</v>
+      </c>
+      <c r="F1397">
+        <v>1254.37293</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6">
+      <c r="A1398" s="2">
+        <v>45537.04166666666</v>
+      </c>
+      <c r="B1398">
+        <v>57467.25</v>
+      </c>
+      <c r="C1398">
+        <v>57578.99</v>
+      </c>
+      <c r="D1398">
+        <v>57242</v>
+      </c>
+      <c r="E1398">
+        <v>57423.23</v>
+      </c>
+      <c r="F1398">
+        <v>1069.88828</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6">
+      <c r="A1399" s="2">
+        <v>45537.08333333334</v>
+      </c>
+      <c r="B1399">
+        <v>57423.23</v>
+      </c>
+      <c r="C1399">
+        <v>57721</v>
+      </c>
+      <c r="D1399">
+        <v>57294</v>
+      </c>
+      <c r="E1399">
+        <v>57509.01</v>
+      </c>
+      <c r="F1399">
+        <v>1338.60119</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6">
+      <c r="A1400" s="2">
+        <v>45537.125</v>
+      </c>
+      <c r="B1400">
+        <v>57509.01</v>
+      </c>
+      <c r="C1400">
+        <v>57767.14</v>
+      </c>
+      <c r="D1400">
+        <v>57502.05</v>
+      </c>
+      <c r="E1400">
+        <v>57742.01</v>
+      </c>
+      <c r="F1400">
+        <v>942.01768</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6">
+      <c r="A1401" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1401">
+        <v>57742</v>
+      </c>
+      <c r="C1401">
+        <v>57766</v>
+      </c>
+      <c r="D1401">
+        <v>57445.91</v>
+      </c>
+      <c r="E1401">
+        <v>57459.51</v>
+      </c>
+      <c r="F1401">
+        <v>662.73901</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6">
+      <c r="A1402" s="2">
+        <v>45537.20833333334</v>
+      </c>
+      <c r="B1402">
+        <v>57459.51</v>
+      </c>
+      <c r="C1402">
+        <v>57987.99</v>
+      </c>
+      <c r="D1402">
+        <v>57449.75</v>
+      </c>
+      <c r="E1402">
+        <v>57785.01</v>
+      </c>
+      <c r="F1402">
+        <v>803.51922</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6">
+      <c r="A1403" s="2">
+        <v>45537.25</v>
+      </c>
+      <c r="B1403">
+        <v>57785</v>
+      </c>
+      <c r="C1403">
+        <v>57883</v>
+      </c>
+      <c r="D1403">
+        <v>57662.01</v>
+      </c>
+      <c r="E1403">
+        <v>57688</v>
+      </c>
+      <c r="F1403">
+        <v>469.19262</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6">
+      <c r="A1404" s="2">
+        <v>45537.29166666666</v>
+      </c>
+      <c r="B1404">
+        <v>57688</v>
+      </c>
+      <c r="C1404">
+        <v>57792</v>
+      </c>
+      <c r="D1404">
+        <v>57362.06</v>
+      </c>
+      <c r="E1404">
+        <v>57547.99</v>
+      </c>
+      <c r="F1404">
+        <v>681.15499</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6">
+      <c r="A1405" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1405">
+        <v>57548</v>
+      </c>
+      <c r="C1405">
+        <v>58300</v>
+      </c>
+      <c r="D1405">
+        <v>57520.12</v>
+      </c>
+      <c r="E1405">
+        <v>58056.01</v>
+      </c>
+      <c r="F1405">
+        <v>1815.84911</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6">
+      <c r="A1406" s="2">
+        <v>45537.375</v>
+      </c>
+      <c r="B1406">
+        <v>58056.01</v>
+      </c>
+      <c r="C1406">
+        <v>58462</v>
+      </c>
+      <c r="D1406">
+        <v>57901.2</v>
+      </c>
+      <c r="E1406">
+        <v>58402.35</v>
+      </c>
+      <c r="F1406">
+        <v>1244.82426</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6">
+      <c r="A1407" s="2">
+        <v>45537.41666666666</v>
+      </c>
+      <c r="B1407">
+        <v>58402</v>
+      </c>
+      <c r="C1407">
+        <v>58587</v>
+      </c>
+      <c r="D1407">
+        <v>58293</v>
+      </c>
+      <c r="E1407">
+        <v>58498.51</v>
+      </c>
+      <c r="F1407">
+        <v>1034.96543</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6">
+      <c r="A1408" s="2">
+        <v>45537.45833333334</v>
+      </c>
+      <c r="B1408">
+        <v>58498.51</v>
+      </c>
+      <c r="C1408">
+        <v>58680.76</v>
+      </c>
+      <c r="D1408">
+        <v>58349.02</v>
+      </c>
+      <c r="E1408">
+        <v>58400</v>
+      </c>
+      <c r="F1408">
+        <v>938.97747</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6">
+      <c r="A1409" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1409">
+        <v>58422.01</v>
+      </c>
+      <c r="C1409">
+        <v>58509</v>
+      </c>
+      <c r="D1409">
+        <v>58256.1</v>
+      </c>
+      <c r="E1409">
+        <v>58393.94</v>
+      </c>
+      <c r="F1409">
+        <v>616.4684099999999</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6">
+      <c r="A1410" s="2">
+        <v>45537.54166666666</v>
+      </c>
+      <c r="B1410">
+        <v>58393.94</v>
+      </c>
+      <c r="C1410">
+        <v>58489</v>
+      </c>
+      <c r="D1410">
+        <v>58149.54</v>
+      </c>
+      <c r="E1410">
+        <v>58181.22</v>
+      </c>
+      <c r="F1410">
+        <v>720.24026</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6">
+      <c r="A1411" s="2">
+        <v>45537.58333333334</v>
+      </c>
+      <c r="B1411">
+        <v>58181.21</v>
+      </c>
+      <c r="C1411">
+        <v>58808</v>
+      </c>
+      <c r="D1411">
+        <v>58104</v>
+      </c>
+      <c r="E1411">
+        <v>58597</v>
+      </c>
+      <c r="F1411">
+        <v>1965.04778</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6">
+      <c r="A1412" s="2">
+        <v>45537.625</v>
+      </c>
+      <c r="B1412">
+        <v>58597</v>
+      </c>
+      <c r="C1412">
+        <v>58741.1</v>
+      </c>
+      <c r="D1412">
+        <v>58480.9</v>
+      </c>
+      <c r="E1412">
+        <v>58537.99</v>
+      </c>
+      <c r="F1412">
+        <v>722.1328999999999</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6">
+      <c r="A1413" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1413">
+        <v>58537.99</v>
+      </c>
+      <c r="C1413">
+        <v>58653</v>
+      </c>
+      <c r="D1413">
+        <v>58293.12</v>
+      </c>
+      <c r="E1413">
+        <v>58345</v>
+      </c>
+      <c r="F1413">
+        <v>535.14834</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6">
+      <c r="A1414" s="2">
+        <v>45537.70833333334</v>
+      </c>
+      <c r="B1414">
+        <v>58345</v>
+      </c>
+      <c r="C1414">
+        <v>58558.49</v>
+      </c>
+      <c r="D1414">
+        <v>58301</v>
+      </c>
+      <c r="E1414">
+        <v>58514.01</v>
+      </c>
+      <c r="F1414">
+        <v>753.89905</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6">
+      <c r="A1415" s="2">
+        <v>45537.75</v>
+      </c>
+      <c r="B1415">
+        <v>58514.01</v>
+      </c>
+      <c r="C1415">
+        <v>58666.64</v>
+      </c>
+      <c r="D1415">
+        <v>58318.33</v>
+      </c>
+      <c r="E1415">
+        <v>58486.01</v>
+      </c>
+      <c r="F1415">
+        <v>1025.88981</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6">
+      <c r="A1416" s="2">
+        <v>45537.79166666666</v>
+      </c>
+      <c r="B1416">
+        <v>58486.01</v>
+      </c>
+      <c r="C1416">
+        <v>58559</v>
+      </c>
+      <c r="D1416">
+        <v>58390.39</v>
+      </c>
+      <c r="E1416">
+        <v>58439.99</v>
+      </c>
+      <c r="F1416">
+        <v>541.5352</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6">
+      <c r="A1417" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1417">
+        <v>58440.03</v>
+      </c>
+      <c r="C1417">
+        <v>59243</v>
+      </c>
+      <c r="D1417">
+        <v>58384.61</v>
+      </c>
+      <c r="E1417">
+        <v>58992</v>
+      </c>
+      <c r="F1417">
+        <v>1191.56744</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6">
+      <c r="A1418" s="2">
+        <v>45537.875</v>
+      </c>
+      <c r="B1418">
+        <v>58992.01</v>
+      </c>
+      <c r="C1418">
+        <v>59274.32</v>
+      </c>
+      <c r="D1418">
+        <v>58875.03</v>
+      </c>
+      <c r="E1418">
+        <v>59047</v>
+      </c>
+      <c r="F1418">
+        <v>1326.68023</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6">
+      <c r="A1419" s="2">
+        <v>45537.91666666666</v>
+      </c>
+      <c r="B1419">
+        <v>59047</v>
+      </c>
+      <c r="C1419">
+        <v>59350</v>
+      </c>
+      <c r="D1419">
+        <v>59008.81</v>
+      </c>
+      <c r="E1419">
+        <v>59349.99</v>
+      </c>
+      <c r="F1419">
+        <v>637.61533</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6">
+      <c r="A1420" s="2">
+        <v>45537.95833333334</v>
+      </c>
+      <c r="B1420">
+        <v>59349.99</v>
+      </c>
+      <c r="C1420">
+        <v>59425.69</v>
+      </c>
+      <c r="D1420">
+        <v>59073</v>
+      </c>
+      <c r="E1420">
+        <v>59132.13</v>
+      </c>
+      <c r="F1420">
+        <v>564.97293</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6">
+      <c r="A1421" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1421">
+        <v>59132.12</v>
+      </c>
+      <c r="C1421">
+        <v>59258</v>
+      </c>
+      <c r="D1421">
+        <v>59021.62</v>
+      </c>
+      <c r="E1421">
+        <v>59257.99</v>
+      </c>
+      <c r="F1421">
+        <v>502.75643</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6">
+      <c r="A1422" s="2">
+        <v>45538.04166666666</v>
+      </c>
+      <c r="B1422">
+        <v>59258</v>
+      </c>
+      <c r="C1422">
+        <v>59406.57</v>
+      </c>
+      <c r="D1422">
+        <v>59195.41</v>
+      </c>
+      <c r="E1422">
+        <v>59388.01</v>
+      </c>
+      <c r="F1422">
+        <v>518.7171499999999</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6">
+      <c r="A1423" s="2">
+        <v>45538.08333333334</v>
+      </c>
+      <c r="B1423">
+        <v>59388.01</v>
+      </c>
+      <c r="C1423">
+        <v>59809.65</v>
+      </c>
+      <c r="D1423">
+        <v>59300</v>
+      </c>
+      <c r="E1423">
+        <v>59311.01</v>
+      </c>
+      <c r="F1423">
+        <v>1623.18138</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6">
+      <c r="A1424" s="2">
+        <v>45538.125</v>
+      </c>
+      <c r="B1424">
+        <v>59311.01</v>
+      </c>
+      <c r="C1424">
+        <v>59327.71</v>
+      </c>
+      <c r="D1424">
+        <v>59041.86</v>
+      </c>
+      <c r="E1424">
+        <v>59110.99</v>
+      </c>
+      <c r="F1424">
+        <v>544.08321</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6">
+      <c r="A1425" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1425">
+        <v>59111</v>
+      </c>
+      <c r="C1425">
+        <v>59236</v>
+      </c>
+      <c r="D1425">
+        <v>59003.99</v>
+      </c>
+      <c r="E1425">
+        <v>59099.01</v>
+      </c>
+      <c r="F1425">
+        <v>718.44133</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6">
+      <c r="A1426" s="2">
+        <v>45538.20833333334</v>
+      </c>
+      <c r="B1426">
+        <v>59099</v>
+      </c>
+      <c r="C1426">
+        <v>59259</v>
+      </c>
+      <c r="D1426">
+        <v>58988</v>
+      </c>
+      <c r="E1426">
+        <v>59186</v>
+      </c>
+      <c r="F1426">
+        <v>782.1309199999999</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6">
+      <c r="A1427" s="2">
+        <v>45538.25</v>
+      </c>
+      <c r="B1427">
+        <v>59186</v>
+      </c>
+      <c r="C1427">
+        <v>59186</v>
+      </c>
+      <c r="D1427">
+        <v>58872</v>
+      </c>
+      <c r="E1427">
+        <v>58891</v>
+      </c>
+      <c r="F1427">
+        <v>744.03271</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6">
+      <c r="A1428" s="2">
+        <v>45538.29166666666</v>
+      </c>
+      <c r="B1428">
+        <v>58891.01</v>
+      </c>
+      <c r="C1428">
+        <v>59140.35</v>
+      </c>
+      <c r="D1428">
+        <v>58880.57</v>
+      </c>
+      <c r="E1428">
+        <v>59112</v>
+      </c>
+      <c r="F1428">
+        <v>541.94542</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6">
+      <c r="A1429" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1429">
+        <v>59112.01</v>
+      </c>
+      <c r="C1429">
+        <v>59136.58</v>
+      </c>
+      <c r="D1429">
+        <v>58717</v>
+      </c>
+      <c r="E1429">
+        <v>58789.02</v>
+      </c>
+      <c r="F1429">
+        <v>856.96694</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6">
+      <c r="A1430" s="2">
+        <v>45538.375</v>
+      </c>
+      <c r="B1430">
+        <v>58789.01</v>
+      </c>
+      <c r="C1430">
+        <v>58961.5</v>
+      </c>
+      <c r="D1430">
+        <v>58783</v>
+      </c>
+      <c r="E1430">
+        <v>58874</v>
+      </c>
+      <c r="F1430">
+        <v>617.95793</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6">
+      <c r="A1431" s="2">
+        <v>45538.41666666666</v>
+      </c>
+      <c r="B1431">
+        <v>58874.01</v>
+      </c>
+      <c r="C1431">
+        <v>59195.63</v>
+      </c>
+      <c r="D1431">
+        <v>58836.87</v>
+      </c>
+      <c r="E1431">
+        <v>59078.94</v>
+      </c>
+      <c r="F1431">
+        <v>575.26778</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:6">
+      <c r="A1432" s="2">
+        <v>45538.45833333334</v>
+      </c>
+      <c r="B1432">
+        <v>59078.94</v>
+      </c>
+      <c r="C1432">
+        <v>59106.01</v>
+      </c>
+      <c r="D1432">
+        <v>58951</v>
+      </c>
+      <c r="E1432">
+        <v>59072</v>
+      </c>
+      <c r="F1432">
+        <v>383.8643</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6">
+      <c r="A1433" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1433">
+        <v>59072.01</v>
+      </c>
+      <c r="C1433">
+        <v>59350</v>
+      </c>
+      <c r="D1433">
+        <v>59057.34</v>
+      </c>
+      <c r="E1433">
+        <v>59135.01</v>
+      </c>
+      <c r="F1433">
+        <v>692.84349</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6">
+      <c r="A1434" s="2">
+        <v>45538.54166666666</v>
+      </c>
+      <c r="B1434">
+        <v>59135.01</v>
+      </c>
+      <c r="C1434">
+        <v>59320.14</v>
+      </c>
+      <c r="D1434">
+        <v>58198.28</v>
+      </c>
+      <c r="E1434">
+        <v>58398.99</v>
+      </c>
+      <c r="F1434">
+        <v>2496.48305</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6">
+      <c r="A1435" s="2">
+        <v>45538.58333333334</v>
+      </c>
+      <c r="B1435">
+        <v>58398.99</v>
+      </c>
+      <c r="C1435">
+        <v>58398.99</v>
+      </c>
+      <c r="D1435">
+        <v>57568</v>
+      </c>
+      <c r="E1435">
+        <v>57672.84</v>
+      </c>
+      <c r="F1435">
+        <v>3781.01296</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6">
+      <c r="A1436" s="2">
+        <v>45538.625</v>
+      </c>
+      <c r="B1436">
+        <v>57672.84</v>
+      </c>
+      <c r="C1436">
+        <v>58018</v>
+      </c>
+      <c r="D1436">
+        <v>57630</v>
+      </c>
+      <c r="E1436">
+        <v>57725</v>
+      </c>
+      <c r="F1436">
+        <v>1219.72466</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6">
+      <c r="A1437" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1437">
+        <v>57725.01</v>
+      </c>
+      <c r="C1437">
+        <v>57924</v>
+      </c>
+      <c r="D1437">
+        <v>57655.81</v>
+      </c>
+      <c r="E1437">
+        <v>57708</v>
+      </c>
+      <c r="F1437">
+        <v>1112.37825</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6">
+      <c r="A1438" s="2">
+        <v>45538.70833333334</v>
+      </c>
+      <c r="B1438">
+        <v>57707.99</v>
+      </c>
+      <c r="C1438">
+        <v>58100</v>
+      </c>
+      <c r="D1438">
+        <v>57680</v>
+      </c>
+      <c r="E1438">
+        <v>57698</v>
+      </c>
+      <c r="F1438">
+        <v>885.89458</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6">
+      <c r="A1439" s="2">
+        <v>45538.75</v>
+      </c>
+      <c r="B1439">
+        <v>57698</v>
+      </c>
+      <c r="C1439">
+        <v>58055</v>
+      </c>
+      <c r="D1439">
+        <v>57589.01</v>
+      </c>
+      <c r="E1439">
+        <v>57926</v>
+      </c>
+      <c r="F1439">
+        <v>915.05632</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6">
+      <c r="A1440" s="2">
+        <v>45538.79166666666</v>
+      </c>
+      <c r="B1440">
+        <v>57925.99</v>
+      </c>
+      <c r="C1440">
+        <v>58251.09</v>
+      </c>
+      <c r="D1440">
+        <v>57852</v>
+      </c>
+      <c r="E1440">
+        <v>58046</v>
+      </c>
+      <c r="F1440">
+        <v>833.08235</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6">
+      <c r="A1441" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1441">
+        <v>58045.99</v>
+      </c>
+      <c r="C1441">
+        <v>58247</v>
+      </c>
+      <c r="D1441">
+        <v>58045.99</v>
+      </c>
+      <c r="E1441">
+        <v>58228</v>
+      </c>
+      <c r="F1441">
+        <v>587.21957</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6">
+      <c r="A1442" s="2">
+        <v>45538.875</v>
+      </c>
+      <c r="B1442">
+        <v>58228.01</v>
+      </c>
+      <c r="C1442">
+        <v>58238</v>
+      </c>
+      <c r="D1442">
+        <v>57957.5</v>
+      </c>
+      <c r="E1442">
+        <v>58134.61</v>
+      </c>
+      <c r="F1442">
+        <v>471.63225</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6">
+      <c r="A1443" s="2">
+        <v>45538.91666666666</v>
+      </c>
+      <c r="B1443">
+        <v>58134.61</v>
+      </c>
+      <c r="C1443">
+        <v>58183.68</v>
+      </c>
+      <c r="D1443">
+        <v>57863.99</v>
+      </c>
+      <c r="E1443">
+        <v>57865</v>
+      </c>
+      <c r="F1443">
+        <v>495.40241</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6">
+      <c r="A1444" s="2">
+        <v>45538.95833333334</v>
+      </c>
+      <c r="B1444">
+        <v>57865</v>
+      </c>
+      <c r="C1444">
+        <v>57899</v>
+      </c>
+      <c r="D1444">
+        <v>57415</v>
+      </c>
+      <c r="E1444">
+        <v>57487.73</v>
+      </c>
+      <c r="F1444">
+        <v>928.1090799999999</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6">
+      <c r="A1445" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1445">
+        <v>57487.74</v>
+      </c>
+      <c r="C1445">
+        <v>57943.53</v>
+      </c>
+      <c r="D1445">
+        <v>57100</v>
+      </c>
+      <c r="E1445">
+        <v>57140.02</v>
+      </c>
+      <c r="F1445">
+        <v>1476.45488</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6">
+      <c r="A1446" s="2">
+        <v>45539.04166666666</v>
+      </c>
+      <c r="B1446">
+        <v>57140.02</v>
+      </c>
+      <c r="C1446">
+        <v>57161.06</v>
+      </c>
+      <c r="D1446">
+        <v>55606</v>
+      </c>
+      <c r="E1446">
+        <v>56784.01</v>
+      </c>
+      <c r="F1446">
+        <v>6507.54633</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6">
+      <c r="A1447" s="2">
+        <v>45539.08333333334</v>
+      </c>
+      <c r="B1447">
+        <v>56784.01</v>
+      </c>
+      <c r="C1447">
+        <v>56823</v>
+      </c>
+      <c r="D1447">
+        <v>56520.35</v>
+      </c>
+      <c r="E1447">
+        <v>56648.01</v>
+      </c>
+      <c r="F1447">
+        <v>1131.28965</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6">
+      <c r="A1448" s="2">
+        <v>45539.125</v>
+      </c>
+      <c r="B1448">
+        <v>56648.01</v>
+      </c>
+      <c r="C1448">
+        <v>56850</v>
+      </c>
+      <c r="D1448">
+        <v>56618</v>
+      </c>
+      <c r="E1448">
+        <v>56653.98</v>
+      </c>
+      <c r="F1448">
+        <v>893.25504</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6">
+      <c r="A1449" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1449">
+        <v>56653.99</v>
+      </c>
+      <c r="C1449">
+        <v>56728</v>
+      </c>
+      <c r="D1449">
+        <v>56559.15</v>
+      </c>
+      <c r="E1449">
+        <v>56694</v>
+      </c>
+      <c r="F1449">
+        <v>517.99161</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6">
+      <c r="A1450" s="2">
+        <v>45539.20833333334</v>
+      </c>
+      <c r="B1450">
+        <v>56694</v>
+      </c>
+      <c r="C1450">
+        <v>56694</v>
+      </c>
+      <c r="D1450">
+        <v>56201</v>
+      </c>
+      <c r="E1450">
+        <v>56252.01</v>
+      </c>
+      <c r="F1450">
+        <v>1520.48803</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6">
+      <c r="A1451" s="2">
+        <v>45539.25</v>
+      </c>
+      <c r="B1451">
+        <v>56252.01</v>
+      </c>
+      <c r="C1451">
+        <v>56530.01</v>
+      </c>
+      <c r="D1451">
+        <v>56209.99</v>
+      </c>
+      <c r="E1451">
+        <v>56277</v>
+      </c>
+      <c r="F1451">
+        <v>2018.11039</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6">
+      <c r="A1452" s="2">
+        <v>45539.29166666666</v>
+      </c>
+      <c r="B1452">
+        <v>56277</v>
+      </c>
+      <c r="C1452">
+        <v>56881</v>
+      </c>
+      <c r="D1452">
+        <v>56253</v>
+      </c>
+      <c r="E1452">
+        <v>56746</v>
+      </c>
+      <c r="F1452">
+        <v>1513.51398</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6">
+      <c r="A1453" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1453">
+        <v>56746</v>
+      </c>
+      <c r="C1453">
+        <v>56909.94</v>
+      </c>
+      <c r="D1453">
+        <v>56668.28</v>
+      </c>
+      <c r="E1453">
+        <v>56783.01</v>
+      </c>
+      <c r="F1453">
+        <v>740.01293</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6">
+      <c r="A1454" s="2">
+        <v>45539.375</v>
+      </c>
+      <c r="B1454">
+        <v>56783.01</v>
+      </c>
+      <c r="C1454">
+        <v>56855</v>
+      </c>
+      <c r="D1454">
+        <v>56570</v>
+      </c>
+      <c r="E1454">
+        <v>56596.99</v>
+      </c>
+      <c r="F1454">
+        <v>853.89851</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6">
+      <c r="A1455" s="2">
+        <v>45539.41666666666</v>
+      </c>
+      <c r="B1455">
+        <v>56596.99</v>
+      </c>
+      <c r="C1455">
+        <v>56710.47</v>
+      </c>
+      <c r="D1455">
+        <v>56453</v>
+      </c>
+      <c r="E1455">
+        <v>56456.45</v>
+      </c>
+      <c r="F1455">
+        <v>878.42947</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6">
+      <c r="A1456" s="2">
+        <v>45539.45833333334</v>
+      </c>
+      <c r="B1456">
+        <v>56456.46</v>
+      </c>
+      <c r="C1456">
+        <v>56682.32</v>
+      </c>
+      <c r="D1456">
+        <v>56454.73</v>
+      </c>
+      <c r="E1456">
+        <v>56573</v>
+      </c>
+      <c r="F1456">
+        <v>540.51183</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:6">
+      <c r="A1457" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1457">
+        <v>56573</v>
+      </c>
+      <c r="C1457">
+        <v>56763.99</v>
+      </c>
+      <c r="D1457">
+        <v>56479.95</v>
+      </c>
+      <c r="E1457">
+        <v>56599.99</v>
+      </c>
+      <c r="F1457">
+        <v>776.26939</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6">
+      <c r="A1458" s="2">
+        <v>45539.54166666666</v>
+      </c>
+      <c r="B1458">
+        <v>56600</v>
+      </c>
+      <c r="C1458">
+        <v>56700</v>
+      </c>
+      <c r="D1458">
+        <v>56319.41</v>
+      </c>
+      <c r="E1458">
+        <v>56490</v>
+      </c>
+      <c r="F1458">
+        <v>1446.0341</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6">
+      <c r="A1459" s="2">
+        <v>45539.58333333334</v>
+      </c>
+      <c r="B1459">
+        <v>56489.99</v>
+      </c>
+      <c r="C1459">
+        <v>57581.4</v>
+      </c>
+      <c r="D1459">
+        <v>56187.61</v>
+      </c>
+      <c r="E1459">
+        <v>57511.1</v>
+      </c>
+      <c r="F1459">
+        <v>3849.65881</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6">
+      <c r="A1460" s="2">
+        <v>45539.625</v>
+      </c>
+      <c r="B1460">
+        <v>57511.11</v>
+      </c>
+      <c r="C1460">
+        <v>58181.43</v>
+      </c>
+      <c r="D1460">
+        <v>57365</v>
+      </c>
+      <c r="E1460">
+        <v>58134</v>
+      </c>
+      <c r="F1460">
+        <v>3831.97973</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6">
+      <c r="A1461" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1461">
+        <v>58134</v>
+      </c>
+      <c r="C1461">
+        <v>58519</v>
+      </c>
+      <c r="D1461">
+        <v>58121.1</v>
+      </c>
+      <c r="E1461">
+        <v>58406.07</v>
+      </c>
+      <c r="F1461">
+        <v>2363.63405</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6">
+      <c r="A1462" s="2">
+        <v>45539.70833333334</v>
+      </c>
+      <c r="B1462">
+        <v>58406.06</v>
+      </c>
+      <c r="C1462">
+        <v>58472</v>
+      </c>
+      <c r="D1462">
+        <v>57821.79</v>
+      </c>
+      <c r="E1462">
+        <v>57878</v>
+      </c>
+      <c r="F1462">
+        <v>1365.95138</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6">
+      <c r="A1463" s="2">
+        <v>45539.75</v>
+      </c>
+      <c r="B1463">
+        <v>57878.01</v>
+      </c>
+      <c r="C1463">
+        <v>57997.99</v>
+      </c>
+      <c r="D1463">
+        <v>57646</v>
+      </c>
+      <c r="E1463">
+        <v>57684.01</v>
+      </c>
+      <c r="F1463">
+        <v>805.58545</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6">
+      <c r="A1464" s="2">
+        <v>45539.79166666666</v>
+      </c>
+      <c r="B1464">
+        <v>57684.01</v>
+      </c>
+      <c r="C1464">
+        <v>57992.06</v>
+      </c>
+      <c r="D1464">
+        <v>57662</v>
+      </c>
+      <c r="E1464">
+        <v>57992.06</v>
+      </c>
+      <c r="F1464">
+        <v>498.06726</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6">
+      <c r="A1465" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1465">
+        <v>58058</v>
+      </c>
+      <c r="C1465">
+        <v>58181</v>
+      </c>
+      <c r="D1465">
+        <v>57792.46</v>
+      </c>
+      <c r="E1465">
+        <v>58048.01</v>
+      </c>
+      <c r="F1465">
+        <v>598.90498</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6">
+      <c r="A1466" s="2">
+        <v>45539.875</v>
+      </c>
+      <c r="B1466">
+        <v>58048</v>
+      </c>
+      <c r="C1466">
+        <v>58120</v>
+      </c>
+      <c r="D1466">
+        <v>57948</v>
+      </c>
+      <c r="E1466">
+        <v>58100</v>
+      </c>
+      <c r="F1466">
+        <v>300.28427</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6">
+      <c r="A1467" s="2">
+        <v>45539.91666666666</v>
+      </c>
+      <c r="B1467">
+        <v>58100</v>
+      </c>
+      <c r="C1467">
+        <v>58390</v>
+      </c>
+      <c r="D1467">
+        <v>58041.1</v>
+      </c>
+      <c r="E1467">
+        <v>58130.99</v>
+      </c>
+      <c r="F1467">
+        <v>465.29601</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6">
+      <c r="A1468" s="2">
+        <v>45539.95833333334</v>
+      </c>
+      <c r="B1468">
+        <v>58130.98</v>
+      </c>
+      <c r="C1468">
+        <v>58232</v>
+      </c>
+      <c r="D1468">
+        <v>57889.81</v>
+      </c>
+      <c r="E1468">
+        <v>57970.9</v>
+      </c>
+      <c r="F1468">
+        <v>416.15905</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6">
+      <c r="A1469" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1469">
+        <v>57970.9</v>
+      </c>
+      <c r="C1469">
+        <v>58327.07</v>
+      </c>
+      <c r="D1469">
+        <v>57964</v>
+      </c>
+      <c r="E1469">
+        <v>57997.75</v>
+      </c>
+      <c r="F1469">
+        <v>935.43836</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6">
+      <c r="A1470" s="2">
+        <v>45540.04166666666</v>
+      </c>
+      <c r="B1470">
+        <v>57997.75</v>
+      </c>
+      <c r="C1470">
+        <v>58249</v>
+      </c>
+      <c r="D1470">
+        <v>57955.55</v>
+      </c>
+      <c r="E1470">
+        <v>58021.99</v>
+      </c>
+      <c r="F1470">
+        <v>499.19331</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6">
+      <c r="A1471" s="2">
+        <v>45540.08333333334</v>
+      </c>
+      <c r="B1471">
+        <v>58021.99</v>
+      </c>
+      <c r="C1471">
+        <v>58063.99</v>
+      </c>
+      <c r="D1471">
+        <v>57653.13</v>
+      </c>
+      <c r="E1471">
+        <v>57692.99</v>
+      </c>
+      <c r="F1471">
+        <v>783.10999</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6">
+      <c r="A1472" s="2">
+        <v>45540.125</v>
+      </c>
+      <c r="B1472">
+        <v>57693</v>
+      </c>
+      <c r="C1472">
+        <v>57693</v>
+      </c>
+      <c r="D1472">
+        <v>56891.07</v>
+      </c>
+      <c r="E1472">
+        <v>57135.42</v>
+      </c>
+      <c r="F1472">
+        <v>2500.2871</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6">
+      <c r="A1473" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1473">
+        <v>57135.42</v>
+      </c>
+      <c r="C1473">
+        <v>57291.1</v>
+      </c>
+      <c r="D1473">
+        <v>57076.01</v>
+      </c>
+      <c r="E1473">
+        <v>57206.4</v>
+      </c>
+      <c r="F1473">
+        <v>672.68373</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6">
+      <c r="A1474" s="2">
+        <v>45540.20833333334</v>
+      </c>
+      <c r="B1474">
+        <v>57206.4</v>
+      </c>
+      <c r="C1474">
+        <v>57268.75</v>
+      </c>
+      <c r="D1474">
+        <v>57029</v>
+      </c>
+      <c r="E1474">
+        <v>57194.99</v>
+      </c>
+      <c r="F1474">
+        <v>549.29554</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6">
+      <c r="A1475" s="2">
+        <v>45540.25</v>
+      </c>
+      <c r="B1475">
+        <v>57195</v>
+      </c>
+      <c r="C1475">
+        <v>57222.78</v>
+      </c>
+      <c r="D1475">
+        <v>56541.68</v>
+      </c>
+      <c r="E1475">
+        <v>56914.01</v>
+      </c>
+      <c r="F1475">
+        <v>1323.86325</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6">
+      <c r="A1476" s="2">
+        <v>45540.29166666666</v>
+      </c>
+      <c r="B1476">
+        <v>56914.01</v>
+      </c>
+      <c r="C1476">
+        <v>57245.03</v>
+      </c>
+      <c r="D1476">
+        <v>56831.71</v>
+      </c>
+      <c r="E1476">
+        <v>57155.1</v>
+      </c>
+      <c r="F1476">
+        <v>791.72283</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6">
+      <c r="A1477" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1477">
+        <v>57155.1</v>
+      </c>
+      <c r="C1477">
+        <v>57232</v>
+      </c>
+      <c r="D1477">
+        <v>56952.65</v>
+      </c>
+      <c r="E1477">
+        <v>57004</v>
+      </c>
+      <c r="F1477">
+        <v>627.52643</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6">
+      <c r="A1478" s="2">
+        <v>45540.375</v>
+      </c>
+      <c r="B1478">
+        <v>57004</v>
+      </c>
+      <c r="C1478">
+        <v>57012</v>
+      </c>
+      <c r="D1478">
+        <v>56623</v>
+      </c>
+      <c r="E1478">
+        <v>56797</v>
+      </c>
+      <c r="F1478">
+        <v>1013.95708</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6">
+      <c r="A1479" s="2">
+        <v>45540.41666666666</v>
+      </c>
+      <c r="B1479">
+        <v>56797</v>
+      </c>
+      <c r="C1479">
+        <v>56848.97</v>
+      </c>
+      <c r="D1479">
+        <v>56654.31</v>
+      </c>
+      <c r="E1479">
+        <v>56771</v>
+      </c>
+      <c r="F1479">
+        <v>586.08011</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6">
+      <c r="A1480" s="2">
+        <v>45540.45833333334</v>
+      </c>
+      <c r="B1480">
+        <v>56771</v>
+      </c>
+      <c r="C1480">
+        <v>56863.8</v>
+      </c>
+      <c r="D1480">
+        <v>56663</v>
+      </c>
+      <c r="E1480">
+        <v>56698.01</v>
+      </c>
+      <c r="F1480">
+        <v>597.4144700000001</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6">
+      <c r="A1481" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1481">
+        <v>56698.01</v>
+      </c>
+      <c r="C1481">
+        <v>56850</v>
+      </c>
+      <c r="D1481">
+        <v>56318</v>
+      </c>
+      <c r="E1481">
+        <v>56662</v>
+      </c>
+      <c r="F1481">
+        <v>1962.33334</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:6">
+      <c r="A1482" s="2">
+        <v>45540.54166666666</v>
+      </c>
+      <c r="B1482">
+        <v>56662.01</v>
+      </c>
+      <c r="C1482">
+        <v>57158.81</v>
+      </c>
+      <c r="D1482">
+        <v>56571.47</v>
+      </c>
+      <c r="E1482">
+        <v>57028.62</v>
+      </c>
+      <c r="F1482">
+        <v>1904.3596</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6">
+      <c r="A1483" s="2">
+        <v>45540.58333333334</v>
+      </c>
+      <c r="B1483">
+        <v>57028.62</v>
+      </c>
+      <c r="C1483">
+        <v>57350</v>
+      </c>
+      <c r="D1483">
+        <v>56479.36</v>
+      </c>
+      <c r="E1483">
+        <v>56558.01</v>
+      </c>
+      <c r="F1483">
+        <v>2734.64511</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6">
+      <c r="A1484" s="2">
+        <v>45540.625</v>
+      </c>
+      <c r="B1484">
+        <v>56558</v>
+      </c>
+      <c r="C1484">
+        <v>56674.83</v>
+      </c>
+      <c r="D1484">
+        <v>55817.51</v>
+      </c>
+      <c r="E1484">
+        <v>55976.01</v>
+      </c>
+      <c r="F1484">
+        <v>3598.75143</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6">
+      <c r="A1485" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1485">
+        <v>55976.01</v>
+      </c>
+      <c r="C1485">
+        <v>56416.65</v>
+      </c>
+      <c r="D1485">
+        <v>55960</v>
+      </c>
+      <c r="E1485">
+        <v>56335</v>
+      </c>
+      <c r="F1485">
+        <v>1223.32262</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6">
+      <c r="A1486" s="2">
+        <v>45540.70833333334</v>
+      </c>
+      <c r="B1486">
+        <v>56335</v>
+      </c>
+      <c r="C1486">
+        <v>56614</v>
+      </c>
+      <c r="D1486">
+        <v>56200.42</v>
+      </c>
+      <c r="E1486">
+        <v>56602.99</v>
+      </c>
+      <c r="F1486">
+        <v>893.08044</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6">
+      <c r="A1487" s="2">
+        <v>45540.75</v>
+      </c>
+      <c r="B1487">
+        <v>56603</v>
+      </c>
+      <c r="C1487">
+        <v>56710</v>
+      </c>
+      <c r="D1487">
+        <v>56506.3</v>
+      </c>
+      <c r="E1487">
+        <v>56548.99</v>
+      </c>
+      <c r="F1487">
+        <v>602.59695</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6">
+      <c r="A1488" s="2">
+        <v>45540.79166666666</v>
+      </c>
+      <c r="B1488">
+        <v>56549</v>
+      </c>
+      <c r="C1488">
+        <v>56568</v>
+      </c>
+      <c r="D1488">
+        <v>55800</v>
+      </c>
+      <c r="E1488">
+        <v>56060.01</v>
+      </c>
+      <c r="F1488">
+        <v>1587.58365</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6">
+      <c r="A1489" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1489">
+        <v>56060</v>
+      </c>
+      <c r="C1489">
+        <v>56259.97</v>
+      </c>
+      <c r="D1489">
+        <v>56010</v>
+      </c>
+      <c r="E1489">
+        <v>56094</v>
+      </c>
+      <c r="F1489">
+        <v>664.19636</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6">
+      <c r="A1490" s="2">
+        <v>45540.875</v>
+      </c>
+      <c r="B1490">
+        <v>56094</v>
+      </c>
+      <c r="C1490">
+        <v>56253.44</v>
+      </c>
+      <c r="D1490">
+        <v>55643.65</v>
+      </c>
+      <c r="E1490">
+        <v>56150.6</v>
+      </c>
+      <c r="F1490">
+        <v>901.95735</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6">
+      <c r="A1491" s="2">
+        <v>45540.91666666666</v>
+      </c>
+      <c r="B1491">
+        <v>56150.59</v>
+      </c>
+      <c r="C1491">
+        <v>56227.5</v>
+      </c>
+      <c r="D1491">
+        <v>55783</v>
+      </c>
+      <c r="E1491">
+        <v>56104.6</v>
+      </c>
+      <c r="F1491">
+        <v>521.41259</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6">
+      <c r="A1492" s="2">
+        <v>45540.95833333334</v>
+      </c>
+      <c r="B1492">
+        <v>56104.99</v>
+      </c>
+      <c r="C1492">
+        <v>56208</v>
+      </c>
+      <c r="D1492">
+        <v>55993.45</v>
+      </c>
+      <c r="E1492">
+        <v>56180</v>
+      </c>
+      <c r="F1492">
+        <v>332.10249</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6">
+      <c r="A1493" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1493">
+        <v>56180</v>
+      </c>
+      <c r="C1493">
+        <v>56333.82</v>
+      </c>
+      <c r="D1493">
+        <v>55989</v>
+      </c>
+      <c r="E1493">
+        <v>56182</v>
+      </c>
+      <c r="F1493">
+        <v>597.43117</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6">
+      <c r="A1494" s="2">
+        <v>45541.04166666666</v>
+      </c>
+      <c r="B1494">
+        <v>56182.01</v>
+      </c>
+      <c r="C1494">
+        <v>56615.49</v>
+      </c>
+      <c r="D1494">
+        <v>55993</v>
+      </c>
+      <c r="E1494">
+        <v>56558.99</v>
+      </c>
+      <c r="F1494">
+        <v>911.87979</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6">
+      <c r="A1495" s="2">
+        <v>45541.08333333334</v>
+      </c>
+      <c r="B1495">
+        <v>56559</v>
+      </c>
+      <c r="C1495">
+        <v>56858.88</v>
+      </c>
+      <c r="D1495">
+        <v>56499.87</v>
+      </c>
+      <c r="E1495">
+        <v>56738</v>
+      </c>
+      <c r="F1495">
+        <v>940.25226</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6">
+      <c r="A1496" s="2">
+        <v>45541.125</v>
+      </c>
+      <c r="B1496">
+        <v>56738</v>
+      </c>
+      <c r="C1496">
+        <v>56840.88</v>
+      </c>
+      <c r="D1496">
+        <v>56532</v>
+      </c>
+      <c r="E1496">
+        <v>56588</v>
+      </c>
+      <c r="F1496">
+        <v>639.59002</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6">
+      <c r="A1497" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1497">
+        <v>56588.01</v>
+      </c>
+      <c r="C1497">
+        <v>56747.91</v>
+      </c>
+      <c r="D1497">
+        <v>56585.29</v>
+      </c>
+      <c r="E1497">
+        <v>56594.66</v>
+      </c>
+      <c r="F1497">
+        <v>418.54986</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6">
+      <c r="A1498" s="2">
+        <v>45541.20833333334</v>
+      </c>
+      <c r="B1498">
+        <v>56594.67</v>
+      </c>
+      <c r="C1498">
+        <v>56665.26</v>
+      </c>
+      <c r="D1498">
+        <v>56295.49</v>
+      </c>
+      <c r="E1498">
+        <v>56491.01</v>
+      </c>
+      <c r="F1498">
+        <v>859.71721</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6">
+      <c r="A1499" s="2">
+        <v>45541.25</v>
+      </c>
+      <c r="B1499">
+        <v>56491.01</v>
+      </c>
+      <c r="C1499">
+        <v>56518</v>
+      </c>
+      <c r="D1499">
+        <v>56278.57</v>
+      </c>
+      <c r="E1499">
+        <v>56430.01</v>
+      </c>
+      <c r="F1499">
+        <v>555.46099</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6">
+      <c r="A1500" s="2">
+        <v>45541.29166666666</v>
+      </c>
+      <c r="B1500">
+        <v>56430.01</v>
+      </c>
+      <c r="C1500">
+        <v>56439</v>
+      </c>
+      <c r="D1500">
+        <v>55280</v>
+      </c>
+      <c r="E1500">
+        <v>55804.29</v>
+      </c>
+      <c r="F1500">
+        <v>4110.12466</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6">
+      <c r="A1501" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1501">
+        <v>55804.28</v>
+      </c>
+      <c r="C1501">
+        <v>55938.42</v>
+      </c>
+      <c r="D1501">
+        <v>55639</v>
+      </c>
+      <c r="E1501">
+        <v>55783.01</v>
+      </c>
+      <c r="F1501">
+        <v>1256.44684</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6">
+      <c r="A1502" s="2">
+        <v>45541.375</v>
+      </c>
+      <c r="B1502">
+        <v>55783.01</v>
+      </c>
+      <c r="C1502">
+        <v>55925.46</v>
+      </c>
+      <c r="D1502">
+        <v>55676.72</v>
+      </c>
+      <c r="E1502">
+        <v>55889.86</v>
+      </c>
+      <c r="F1502">
+        <v>1042.624</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6">
+      <c r="A1503" s="2">
+        <v>45541.41666666666</v>
+      </c>
+      <c r="B1503">
+        <v>55889.86</v>
+      </c>
+      <c r="C1503">
+        <v>56262.11</v>
+      </c>
+      <c r="D1503">
+        <v>55889.85</v>
+      </c>
+      <c r="E1503">
+        <v>56178.01</v>
+      </c>
+      <c r="F1503">
+        <v>890.38249</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6">
+      <c r="A1504" s="2">
+        <v>45541.45833333334</v>
+      </c>
+      <c r="B1504">
+        <v>56178.01</v>
+      </c>
+      <c r="C1504">
+        <v>56252</v>
+      </c>
+      <c r="D1504">
+        <v>55826.26</v>
+      </c>
+      <c r="E1504">
+        <v>55999.09</v>
+      </c>
+      <c r="F1504">
+        <v>926.80769</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6">
+      <c r="A1505" s="2">
+        <v>45541.5</v>
+      </c>
+      <c r="B1505">
+        <v>55999.09</v>
+      </c>
+      <c r="C1505">
+        <v>56089</v>
+      </c>
+      <c r="D1505">
+        <v>55846</v>
+      </c>
+      <c r="E1505">
+        <v>56026</v>
+      </c>
+      <c r="F1505">
+        <v>501.95358</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6">
+      <c r="A1506" s="2">
+        <v>45541.54166666666</v>
+      </c>
+      <c r="B1506">
+        <v>56873.99</v>
+      </c>
+      <c r="C1506">
+        <v>57008</v>
+      </c>
+      <c r="D1506">
+        <v>56529</v>
+      </c>
+      <c r="E1506">
+        <v>56612.58</v>
+      </c>
+      <c r="F1506">
+        <v>1521.9214</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:6">
+      <c r="A1507" s="2">
+        <v>45541.58333333334</v>
+      </c>
+      <c r="B1507">
+        <v>55896.01</v>
+      </c>
+      <c r="C1507">
+        <v>55931.35</v>
+      </c>
+      <c r="D1507">
+        <v>55666.42</v>
+      </c>
+      <c r="E1507">
+        <v>55915.21</v>
+      </c>
+      <c r="F1507">
+        <v>341.43294</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
